--- a/ActorsMap/01Data/Processed/Stakeholder.xlsx
+++ b/ActorsMap/01Data/Processed/Stakeholder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpkamakura\Documents\01GCOOS\GCOOS_MHW\ActorsMap\01Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D21962-81C2-4A15-98ED-020CAF929CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F874B83-92D3-460F-9C56-138CCC9185C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6396" yWindow="708" windowWidth="16644" windowHeight="12744" xr2:uid="{2D80622E-B3AC-4D16-AC7E-9723B0C48978}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D80622E-B3AC-4D16-AC7E-9723B0C48978}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder_Info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="111">
   <si>
     <t>Organization.s.</t>
   </si>
@@ -267,7 +267,94 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Industry</t>
+    <t>United Houma Nation</t>
+  </si>
+  <si>
+    <t>Isle de Jean Charles Choctaw Nation</t>
+  </si>
+  <si>
+    <t>Chitimacha Tribe</t>
+  </si>
+  <si>
+    <t>Bayou Lafourche Band of the Biloxi-Chitimacha Indians</t>
+  </si>
+  <si>
+    <t>Poarch Band of Creek Indians</t>
+  </si>
+  <si>
+    <t>Seminole Tribe of Florida</t>
+  </si>
+  <si>
+    <t>Perdido Bay Tribe of Lower Muscogee Creeks</t>
+  </si>
+  <si>
+    <t>Muscogee Nation of Florida</t>
+  </si>
+  <si>
+    <t>City of Corpus Christi</t>
+  </si>
+  <si>
+    <t>Had a shoreline project</t>
+  </si>
+  <si>
+    <t>City of Beaumont-Port Arthur</t>
+  </si>
+  <si>
+    <t>HARC worked with them on a resilience plan, also had the SETx-UFL project</t>
+  </si>
+  <si>
+    <t>City of Pensacola</t>
+  </si>
+  <si>
+    <t>https://www.cityofpensacola.com/3326/Sustainability-Resiliency</t>
+  </si>
+  <si>
+    <t>City of Cape Coral</t>
+  </si>
+  <si>
+    <t>Part of the SWFL Regional Resiliency Coalition</t>
+  </si>
+  <si>
+    <t>City of Fort Myers/Lee County</t>
+  </si>
+  <si>
+    <t>Part of a resilience hub network</t>
+  </si>
+  <si>
+    <t>Industry - Other</t>
+  </si>
+  <si>
+    <t>Industry - Fisheries</t>
+  </si>
+  <si>
+    <t>Everglades National Park</t>
+  </si>
+  <si>
+    <t>https://www.nps.gov/ever/index.htm</t>
+  </si>
+  <si>
+    <t>Dry Tortugas National Park</t>
+  </si>
+  <si>
+    <t>https://www.nps.gov/drto/index.htm</t>
+  </si>
+  <si>
+    <t>Biscayne National Park</t>
+  </si>
+  <si>
+    <t>https://www.nps.gov/bisc/index.htm</t>
+  </si>
+  <si>
+    <t>Virgin Islands National Park</t>
+  </si>
+  <si>
+    <t>https://www.nps.gov/viis/index.htm</t>
+  </si>
+  <si>
+    <t>Conservation</t>
+  </si>
+  <si>
+    <t>Water Quality</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C16C02B-2D72-4732-937F-E521C71D749C}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,19 +1246,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45589</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1179,16 +1263,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45635</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1196,13 +1283,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1213,13 +1300,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1230,13 +1317,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1247,7 +1334,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1264,7 +1351,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1281,13 +1368,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1298,19 +1385,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>45610</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1318,10 +1402,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1335,10 +1419,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1352,13 +1436,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1369,13 +1453,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1386,13 +1470,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1403,16 +1487,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45635</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1420,13 +1507,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1437,16 +1524,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45617</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1454,16 +1544,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45642</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -1471,13 +1564,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1488,13 +1581,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1505,13 +1598,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1522,13 +1615,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1539,19 +1632,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>45611</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1559,19 +1649,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45595</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1579,70 +1666,79 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
       <c r="F26">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
       <c r="F27">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
       <c r="F28">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>45617</v>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1650,22 +1746,335 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>45609</v>
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
       </c>
       <c r="F30">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45635</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45635</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45589</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1675,10 +2084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7629D31-FB32-47C6-A75C-0BDCBB34C2A0}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C83"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1710,7 +2119,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1721,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1732,10 +2141,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1743,10 +2152,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1754,10 +2163,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,10 +2174,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,10 +2185,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1787,10 +2196,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1798,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1809,10 +2218,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1820,10 +2229,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1831,10 +2240,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1842,10 +2251,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1853,10 +2262,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1864,10 +2273,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1875,10 +2284,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1886,10 +2295,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1897,10 +2306,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1908,10 +2317,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1919,10 +2328,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1930,7 +2339,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -1941,10 +2350,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1952,10 +2361,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1963,10 +2372,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1974,10 +2383,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1985,10 +2394,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1996,10 +2405,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2007,7 +2416,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -2018,10 +2427,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2029,10 +2438,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2040,10 +2449,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2051,10 +2460,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2062,10 +2471,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2073,10 +2482,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2084,10 +2493,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2095,10 +2504,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2106,10 +2515,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2117,10 +2526,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2128,10 +2537,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2139,10 +2548,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2150,10 +2559,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2161,10 +2570,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2172,10 +2581,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2183,10 +2592,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2194,10 +2603,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2205,10 +2614,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2216,10 +2625,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2227,10 +2636,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2238,10 +2647,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2249,10 +2658,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2260,10 +2669,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2271,7 +2680,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -2282,10 +2691,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2293,10 +2702,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2304,7 +2713,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
         <v>52</v>
@@ -2315,10 +2724,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2326,10 +2735,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2337,10 +2746,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2348,10 +2757,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2359,10 +2768,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2370,10 +2779,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2381,10 +2790,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2392,10 +2801,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2403,10 +2812,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2414,10 +2823,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2425,10 +2834,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2436,10 +2845,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2447,10 +2856,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2458,10 +2867,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2469,10 +2878,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2480,10 +2889,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2491,10 +2900,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2502,10 +2911,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2513,7 +2922,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -2524,10 +2933,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2535,10 +2944,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2546,10 +2955,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2557,10 +2966,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2568,10 +2977,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2579,10 +2988,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2590,10 +2999,197 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>38</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>39</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>41</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>41</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>41</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>44</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>46</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2603,10 +3199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8448B9-D471-4D30-9BC3-543648FD8231}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2630,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2641,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2652,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2660,10 +3256,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2671,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -2682,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -2693,10 +3289,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2704,10 +3300,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2715,7 +3311,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -2726,10 +3322,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2737,10 +3333,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2748,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -2762,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2773,7 +3369,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2784,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2792,10 +3388,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2806,7 +3402,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2817,7 +3413,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2825,10 +3421,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2839,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2850,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2858,10 +3454,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2872,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2883,7 +3479,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2891,10 +3487,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2905,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2913,10 +3509,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2927,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2938,7 +3534,7 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2949,7 +3545,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2960,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2971,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2982,7 +3578,7 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2990,7 +3586,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>71</v>
@@ -3004,7 +3600,7 @@
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3015,7 +3611,7 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3081,7 +3677,7 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -3092,7 +3688,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -3100,10 +3696,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -3111,10 +3707,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -3122,10 +3718,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -3136,7 +3732,7 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3147,7 +3743,7 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3158,7 +3754,7 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -3169,7 +3765,7 @@
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3180,7 +3776,7 @@
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3188,10 +3784,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3199,7 +3795,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
         <v>71</v>
@@ -3210,10 +3806,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -3221,10 +3817,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -3232,7 +3828,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -3243,10 +3839,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -3254,10 +3850,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -3265,10 +3861,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -3276,10 +3872,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -3287,7 +3883,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -3298,10 +3894,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -3309,10 +3905,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -3320,10 +3916,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -3331,10 +3927,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -3342,7 +3938,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -3353,10 +3949,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -3364,7 +3960,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
@@ -3375,10 +3971,384 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>35</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>35</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>35</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>37</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>38</v>
+      </c>
+      <c r="C89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>39</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>40</v>
+      </c>
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>41</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>41</v>
+      </c>
+      <c r="C93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>43</v>
+      </c>
+      <c r="C96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>44</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>44</v>
+      </c>
+      <c r="C98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>45</v>
+      </c>
+      <c r="C100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>46</v>
+      </c>
+      <c r="C102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>46</v>
+      </c>
+      <c r="C103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>46</v>
+      </c>
+      <c r="C104" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
